--- a/biology/Zoologie/Hylodes_lateristrigatus/Hylodes_lateristrigatus.xlsx
+++ b/biology/Zoologie/Hylodes_lateristrigatus/Hylodes_lateristrigatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hylodes lateristrigatus est une espèce d'amphibiens de la famille des Hylodidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hylodes lateristrigatus est une espèce d'amphibiens de la famille des Hylodidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce est endémique du Brésil. Elle se rencontre entre 600 et 1 500 m d'altitude[1],[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce est endémique du Brésil. Elle se rencontre entre 600 et 1 500 m d'altitude, :
 dans le sud de l'État d'Espírito Santo ;
 dans l'extrême Sud-Est de l'État de Minas Gerais ;
 dans l'État de Rio de Janeiro ;
@@ -545,7 +559,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Baumann, 1912 : Brasilianische Batrachier des Berner Naturhistorischen Museums nebst Untersuchungen über die geographische Verbreitung der Batrachier in Brasilien. Zoologische Jahrbuecher Abteilung fuer Systematik Oekologie und Geographie der Tiere, vol. 33, no 2, p. 87-172 (texte intégral).</t>
         </is>
